--- a/Data/SQL TOP SO/101_InnerJoin_OuterJoin.xlsx
+++ b/Data/SQL TOP SO/101_InnerJoin_OuterJoin.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\YT_SQL_for_DataScience\Data\SQL TOP SO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0F4FFDE7-033D-40DE-BB50-30A468F0E951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227674BF-EC02-42E4-B969-FF8A75DB2E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33285" yWindow="0" windowWidth="21600" windowHeight="11325" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Kolkatta</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
     <t>QTR</t>
   </si>
   <si>
@@ -97,13 +91,16 @@
   </si>
   <si>
     <t>EMP_ID</t>
+  </si>
+  <si>
+    <t>* There should be one column that is common between the 2 Tables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +223,13 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Mosk Bold 700"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="34">
@@ -576,10 +580,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -611,7 +616,7 @@
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Headers" xfId="42"/>
+    <cellStyle name="Headers" xfId="42" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -637,6 +642,318 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6457950" cy="1140120"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08619B7-11CA-4124-BEEE-252982EB5CEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="342900"/>
+          <a:ext cx="6457950" cy="1140120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000">
+              <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>A Learning and Development Manager wants to know how many of her </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" u="sng">
+              <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>team members</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000">
+              <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> did their </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" u="sng">
+              <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>quarterly training consecutively</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5762625" cy="790858"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DC8C81-76FA-4AE5-B3F2-1E1A00D8B8C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="1762125"/>
+          <a:ext cx="5762625" cy="790858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000">
+              <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Also, she wants to know who of the team did </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" u="sng">
+              <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>at least one training in each Quarter</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>684213</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220213</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>140875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A21955C-3FA3-4773-BECD-404CF9C688BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2208213" y="2159000"/>
+          <a:ext cx="3600000" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Step 1: Get the Common Name from each table</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>684213</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220213</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>198025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB81418D-812B-434E-8743-803767974D83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2208213" y="3660775"/>
+          <a:ext cx="3600000" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Step 2: Get the Common Name from each table</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -935,11 +1252,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C18:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -948,288 +1265,371 @@
     <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22">
         <v>104</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23">
         <v>105</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C24">
         <v>106</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>107</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>107</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>108</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>109</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="D1:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
